--- a/result/result_recoment.xlsx
+++ b/result/result_recoment.xlsx
@@ -458,80 +458,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kỹ thuật sinh học</t>
+          <t>Hệ thống thông tin quản lý</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A00</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Đại học Khoa học Tự nhiên - Đại học Quốc gia Hà Nội</t>
+          <t>Đại học Bách khoa Hà Nội</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Khoa học và công nghệ thực phẩm</t>
+          <t>CNTT: Khoa học máy tính</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A00</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Đại học Thủy Lợi</t>
+          <t>Đại học Ngoại thương (Cơ sở Hà Nội)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Công nghệ thông tin</t>
+          <t>Quản trị kinh doanh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A00</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Đại học Bách khoa Hà Nội</t>
+          <t>Học viện Ngoại giao</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Khoa học dữ liệu và trí tuệ nhân tạo (CT tiên tiến)</t>
+          <t>Ngôn ngữ Anh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A00</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đại học Xây dựng Hà Nội</t>
+          <t>Đại học Bách khoa Hà Nội</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kỹ thuật xây dựng/ Chuyên Xây dựng Dân dụng và Công nghiệp</t>
+          <t>CNTT: Khoa học máy tính</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A00</t>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/result/result_recoment.xlsx
+++ b/result/result_recoment.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>A00</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>A00</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>A00</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>A00</t>
         </is>
       </c>
     </row>
